--- a/data/pca/factorExposure/factorExposure_2012-11-01.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-11-01.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.001504292603821849</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>-0.002127723789977474</v>
+      </c>
+      <c r="C2">
+        <v>0.02980920653874028</v>
+      </c>
+      <c r="D2">
+        <v>0.006947943391054921</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>-0.001175198222273952</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>0.006861527028008353</v>
+      </c>
+      <c r="C4">
+        <v>0.08344497614870958</v>
+      </c>
+      <c r="D4">
+        <v>0.07514947511229896</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>-0.00113687464260013</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>0.0136051817242863</v>
+      </c>
+      <c r="C6">
+        <v>0.1132995351838235</v>
+      </c>
+      <c r="D6">
+        <v>0.02367543847034572</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>-0.001991102617903633</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>0.00471821325902247</v>
+      </c>
+      <c r="C7">
+        <v>0.05803993809744981</v>
+      </c>
+      <c r="D7">
+        <v>0.03175579809367161</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>0.0001425108786041445</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>0.005710604217007549</v>
+      </c>
+      <c r="C8">
+        <v>0.03595381177429276</v>
+      </c>
+      <c r="D8">
+        <v>0.04120362896247268</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>-0.003665520561287596</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>0.005033821029073531</v>
+      </c>
+      <c r="C9">
+        <v>0.07134878337369298</v>
+      </c>
+      <c r="D9">
+        <v>0.07518004338623578</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>0.001951612630134598</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>0.006001583639326915</v>
+      </c>
+      <c r="C10">
+        <v>0.05711317588612407</v>
+      </c>
+      <c r="D10">
+        <v>-0.1959946240536357</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>-0.004361300961289389</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>0.00552604071610658</v>
+      </c>
+      <c r="C11">
+        <v>0.08013114070885778</v>
+      </c>
+      <c r="D11">
+        <v>0.06347133132141625</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>-0.001559476263044263</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>0.003960203170479567</v>
+      </c>
+      <c r="C12">
+        <v>0.0646216645167504</v>
+      </c>
+      <c r="D12">
+        <v>0.04984268840435077</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>0.001924486408806521</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>0.008916256896247218</v>
+      </c>
+      <c r="C13">
+        <v>0.06941816128856881</v>
+      </c>
+      <c r="D13">
+        <v>0.05634908233850384</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>-0.002374133822311809</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>0.0009599205623634766</v>
+      </c>
+      <c r="C14">
+        <v>0.04374743355927636</v>
+      </c>
+      <c r="D14">
+        <v>0.006781855305071923</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>-0.0008407203439663019</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>0.005900548196258297</v>
+      </c>
+      <c r="C15">
+        <v>0.04116009858517167</v>
+      </c>
+      <c r="D15">
+        <v>0.02914416812140303</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>-0.002334426843809854</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>0.004904653530410721</v>
+      </c>
+      <c r="C16">
+        <v>0.06435782111231693</v>
+      </c>
+      <c r="D16">
+        <v>0.05530411111295352</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>-0.0003411949868332773</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>0.008697016108041871</v>
+      </c>
+      <c r="C20">
+        <v>0.06516493452370244</v>
+      </c>
+      <c r="D20">
+        <v>0.04731005362004236</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>0.005648917387927353</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>0.00968391174077805</v>
+      </c>
+      <c r="C21">
+        <v>0.02093400408286515</v>
+      </c>
+      <c r="D21">
+        <v>0.04196439676206414</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>-0.01718328377211729</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>-0.006594753597834938</v>
+      </c>
+      <c r="C22">
+        <v>0.09153361172973232</v>
+      </c>
+      <c r="D22">
+        <v>0.1229523148218338</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>-0.01746536139242977</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>-0.006409603361432619</v>
+      </c>
+      <c r="C23">
+        <v>0.09198467902874703</v>
+      </c>
+      <c r="D23">
+        <v>0.1240169046340237</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>-0.003462768039527405</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>0.005455544505228259</v>
+      </c>
+      <c r="C24">
+        <v>0.07612382999763767</v>
+      </c>
+      <c r="D24">
+        <v>0.06683734034623681</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>-0.005696571610745872</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>0.003158778367651087</v>
+      </c>
+      <c r="C25">
+        <v>0.07851709594546127</v>
+      </c>
+      <c r="D25">
+        <v>0.06505919771443161</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>-0.003926922080044016</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>0.003531246191719699</v>
+      </c>
+      <c r="C26">
+        <v>0.03892116013550868</v>
+      </c>
+      <c r="D26">
+        <v>0.02434517017532435</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>-0.008083918363983318</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>-0.001229428409530463</v>
+      </c>
+      <c r="C28">
+        <v>0.1036755256934293</v>
+      </c>
+      <c r="D28">
+        <v>-0.3226084026719763</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>-0.001307861556242636</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>0.002695939585835734</v>
+      </c>
+      <c r="C29">
+        <v>0.04944751988187462</v>
+      </c>
+      <c r="D29">
+        <v>0.007425919422862949</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>-0.004908258585893765</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>0.009983885384732853</v>
+      </c>
+      <c r="C30">
+        <v>0.142696054818206</v>
+      </c>
+      <c r="D30">
+        <v>0.106958124280584</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>-0.0003540643280764771</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>0.006263129083935629</v>
+      </c>
+      <c r="C31">
+        <v>0.04388578187473068</v>
+      </c>
+      <c r="D31">
+        <v>0.02981202621819789</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>-0.0007826316696859957</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>0.003691372111649729</v>
+      </c>
+      <c r="C32">
+        <v>0.04023571991690088</v>
+      </c>
+      <c r="D32">
+        <v>0.02640338967687424</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>-0.003489683934707478</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>0.008607658815184773</v>
+      </c>
+      <c r="C33">
+        <v>0.08707581821568461</v>
+      </c>
+      <c r="D33">
+        <v>0.0664057396292858</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>-0.005115424849347821</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>0.004011559024788212</v>
+      </c>
+      <c r="C34">
+        <v>0.05794847123180227</v>
+      </c>
+      <c r="D34">
+        <v>0.05649193459730431</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>-0.0004431295420618928</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>0.005104577748354036</v>
+      </c>
+      <c r="C35">
+        <v>0.04081407812316522</v>
+      </c>
+      <c r="D35">
+        <v>0.01918301595797044</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>-0.004536382236210666</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>-0.001104987021930359</v>
+      </c>
+      <c r="C36">
+        <v>0.02514865823464741</v>
+      </c>
+      <c r="D36">
+        <v>0.02402959567870148</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>0.001005620773191851</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>0.008883998961570674</v>
+      </c>
+      <c r="C38">
+        <v>0.03554333142559148</v>
+      </c>
+      <c r="D38">
+        <v>0.01504135841824947</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>-0.0132438687235892</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>-0.001047274978777627</v>
+      </c>
+      <c r="C39">
+        <v>0.1151026385474829</v>
+      </c>
+      <c r="D39">
+        <v>0.0777775606956477</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>-0.00915756908560586</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>0.003612201430450219</v>
+      </c>
+      <c r="C40">
+        <v>0.09079500884478144</v>
+      </c>
+      <c r="D40">
+        <v>0.01289129304043803</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>0.0008418413116008192</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>0.00707011067551602</v>
+      </c>
+      <c r="C41">
+        <v>0.03748821776671683</v>
+      </c>
+      <c r="D41">
+        <v>0.03741915539971718</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>-0.003602835369055385</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>0.00385090817150979</v>
+      </c>
+      <c r="C43">
+        <v>0.05287875341645135</v>
+      </c>
+      <c r="D43">
+        <v>0.02578303657868731</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>-0.01553340116518059</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>0.002951550316590341</v>
+      </c>
+      <c r="C44">
+        <v>0.1073053290667318</v>
+      </c>
+      <c r="D44">
+        <v>0.06602183306717523</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>-0.0007834808934338762</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>0.002131794066700867</v>
+      </c>
+      <c r="C46">
+        <v>0.033156638848168</v>
+      </c>
+      <c r="D46">
+        <v>0.03260934475895264</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>-0.002014858188774296</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>0.002242520208325368</v>
+      </c>
+      <c r="C47">
+        <v>0.03664556218299755</v>
+      </c>
+      <c r="D47">
+        <v>0.01970876286715616</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>0.004053641728390602</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>0.006696333623553073</v>
+      </c>
+      <c r="C48">
+        <v>0.03060395123921915</v>
+      </c>
+      <c r="D48">
+        <v>0.03568903907014184</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>-0.01188578021938183</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>0.01709366018036101</v>
+      </c>
+      <c r="C49">
+        <v>0.1882543482879773</v>
+      </c>
+      <c r="D49">
+        <v>0.007252103529225423</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>-0.002091826948992953</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>0.003583977767333132</v>
+      </c>
+      <c r="C50">
+        <v>0.0431413143577937</v>
+      </c>
+      <c r="D50">
+        <v>0.0371530638327802</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>3.842500837959909e-06</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>0.004752193867249446</v>
+      </c>
+      <c r="C51">
+        <v>0.02552671574948992</v>
+      </c>
+      <c r="D51">
+        <v>0.02150537293290239</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>-0.0006087680368953238</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>0.02102797720786055</v>
+      </c>
+      <c r="C53">
+        <v>0.1701540214390953</v>
+      </c>
+      <c r="D53">
+        <v>0.02569075973314308</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>0.001745192984026594</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>0.008790133655329532</v>
+      </c>
+      <c r="C54">
+        <v>0.05440624995060435</v>
+      </c>
+      <c r="D54">
+        <v>0.0443316615984959</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>-0.005554286502827308</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>0.009496512902218987</v>
+      </c>
+      <c r="C55">
+        <v>0.1091115953902495</v>
+      </c>
+      <c r="D55">
+        <v>0.04022437560484426</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>-0.001558159369762038</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>0.01989201514603976</v>
+      </c>
+      <c r="C56">
+        <v>0.1760163787069699</v>
+      </c>
+      <c r="D56">
+        <v>0.01397867273877156</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>-0.009808450178911894</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>0.01944267532815453</v>
+      </c>
+      <c r="C58">
+        <v>0.1092635588286415</v>
+      </c>
+      <c r="D58">
+        <v>0.06404154996687729</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>-0.009644977033453281</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>0.009939148783602541</v>
+      </c>
+      <c r="C59">
+        <v>0.1637443576794952</v>
+      </c>
+      <c r="D59">
+        <v>-0.3354336737820793</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>-0.005407046149512013</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>0.02524861504702515</v>
+      </c>
+      <c r="C60">
+        <v>0.2258760734236691</v>
+      </c>
+      <c r="D60">
+        <v>0.02487144854142749</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>-0.01505554636812093</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>-0.001827799776209971</v>
+      </c>
+      <c r="C61">
+        <v>0.0948540461512459</v>
+      </c>
+      <c r="D61">
+        <v>0.05681504159965809</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>0.1590264637175453</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>0.1484067396421542</v>
+      </c>
+      <c r="C62">
+        <v>0.09600297219406605</v>
+      </c>
+      <c r="D62">
+        <v>0.02796859858441113</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>-0.0007324656077946602</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>0.006654562070980882</v>
+      </c>
+      <c r="C63">
+        <v>0.05415636161746797</v>
+      </c>
+      <c r="D63">
+        <v>0.02829792354759877</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>-0.000333459007059429</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>0.01574014685005405</v>
+      </c>
+      <c r="C64">
+        <v>0.1046753416229359</v>
+      </c>
+      <c r="D64">
+        <v>0.05686950863062674</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>0.001871114072419834</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>0.01788352712807886</v>
+      </c>
+      <c r="C65">
+        <v>0.1240054293665431</v>
+      </c>
+      <c r="D65">
+        <v>0.02063238370151362</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>-0.00740721521682047</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>0.01324844260609181</v>
+      </c>
+      <c r="C66">
+        <v>0.1596798277182004</v>
+      </c>
+      <c r="D66">
+        <v>0.1104745621883638</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>0.002928878753101994</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>0.01541494374163468</v>
+      </c>
+      <c r="C67">
+        <v>0.0667929021945583</v>
+      </c>
+      <c r="D67">
+        <v>0.0271413902362065</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>-0.007647108466460964</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>0.0008669310397394615</v>
+      </c>
+      <c r="C68">
+        <v>0.08453231363495105</v>
+      </c>
+      <c r="D68">
+        <v>-0.2631127975697182</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>-0.002417827582284636</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>0.006039206954200896</v>
+      </c>
+      <c r="C69">
+        <v>0.05092536396493653</v>
+      </c>
+      <c r="D69">
+        <v>0.03793994975202267</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>-6.039784987178686e-05</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>0.001865529092772122</v>
+      </c>
+      <c r="C70">
+        <v>0.004063023803228828</v>
+      </c>
+      <c r="D70">
+        <v>0.002308249267361134</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>-0.002067234345106568</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>0.005592123393023823</v>
+      </c>
+      <c r="C71">
+        <v>0.09142069823720211</v>
+      </c>
+      <c r="D71">
+        <v>-0.3038934527035175</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>-0.005537915866444224</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>0.01649542956454301</v>
+      </c>
+      <c r="C72">
+        <v>0.1534952888981457</v>
+      </c>
+      <c r="D72">
+        <v>0.01044333704322457</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>-0.01523389330680469</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>0.03161496765509141</v>
+      </c>
+      <c r="C73">
+        <v>0.2835071589549958</v>
+      </c>
+      <c r="D73">
+        <v>0.05528163909909983</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>-0.007297025677916806</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>0.001889541372668819</v>
+      </c>
+      <c r="C74">
+        <v>0.1029498184865988</v>
+      </c>
+      <c r="D74">
+        <v>0.03703332268371554</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>-0.00454249442187491</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>0.0110977331822085</v>
+      </c>
+      <c r="C75">
+        <v>0.122519311949905</v>
+      </c>
+      <c r="D75">
+        <v>0.0219896064945653</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>0.005333970859883183</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>0.02234432075694231</v>
+      </c>
+      <c r="C76">
+        <v>0.1484119441839912</v>
+      </c>
+      <c r="D76">
+        <v>0.05625456300486288</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>0.002977827688571898</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>0.02255618807711766</v>
+      </c>
+      <c r="C77">
+        <v>0.115921865430417</v>
+      </c>
+      <c r="D77">
+        <v>0.05837969544240139</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>0.0004358710981802425</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>0.01490420395677234</v>
+      </c>
+      <c r="C78">
+        <v>0.09651160889387984</v>
+      </c>
+      <c r="D78">
+        <v>0.07630425717776865</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>0.0215497027637296</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>0.03804974938745434</v>
+      </c>
+      <c r="C79">
+        <v>0.1568632622794374</v>
+      </c>
+      <c r="D79">
+        <v>0.031212847332024</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>0.005882424919682722</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>0.01021556220294683</v>
+      </c>
+      <c r="C80">
+        <v>0.03988988373408907</v>
+      </c>
+      <c r="D80">
+        <v>0.03006259973695515</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>-0.0005438348878554828</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>0.01566398061895912</v>
+      </c>
+      <c r="C81">
+        <v>0.1298398301696925</v>
+      </c>
+      <c r="D81">
+        <v>0.03712855652740844</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>0.002166513985878652</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>0.01995956405613874</v>
+      </c>
+      <c r="C82">
+        <v>0.1385717537005764</v>
+      </c>
+      <c r="D82">
+        <v>0.04246175760663733</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>-0.005898945808957163</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>0.01052124015079178</v>
+      </c>
+      <c r="C83">
+        <v>0.05941095835605736</v>
+      </c>
+      <c r="D83">
+        <v>0.04823982505316425</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>0.01282434622745669</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>0.01168151594427319</v>
+      </c>
+      <c r="C84">
+        <v>0.03756487053759772</v>
+      </c>
+      <c r="D84">
+        <v>-0.004746991595591578</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>0.01282896481078085</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>0.0290039127593503</v>
+      </c>
+      <c r="C85">
+        <v>0.1244626721419543</v>
+      </c>
+      <c r="D85">
+        <v>0.04058732024273316</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>-0.002579218580945489</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>0.004614105128017768</v>
+      </c>
+      <c r="C86">
+        <v>0.05056772258611963</v>
+      </c>
+      <c r="D86">
+        <v>0.03410376950298877</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>-0.003956760970973224</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>0.01104193440921356</v>
+      </c>
+      <c r="C87">
+        <v>0.1287378526608515</v>
+      </c>
+      <c r="D87">
+        <v>0.07085531207667846</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>-0.01151372784396042</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>-0.002740509112391936</v>
+      </c>
+      <c r="C88">
+        <v>0.06343860235156185</v>
+      </c>
+      <c r="D88">
+        <v>0.0240503215824726</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>-0.01565975679318503</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>-0.001763430528892567</v>
+      </c>
+      <c r="C89">
+        <v>0.1387615347881698</v>
+      </c>
+      <c r="D89">
+        <v>-0.3199792972050194</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>-0.004287965427976451</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>0.006495505168283547</v>
+      </c>
+      <c r="C90">
+        <v>0.1189465798866344</v>
+      </c>
+      <c r="D90">
+        <v>-0.31411402572194</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>-0.001781386417442138</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>0.01026842810282121</v>
+      </c>
+      <c r="C91">
+        <v>0.09976768116103317</v>
+      </c>
+      <c r="D91">
+        <v>0.02460444009483599</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>-0.01134764118696894</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>0.0009780469145094389</v>
+      </c>
+      <c r="C92">
+        <v>0.1350258432630501</v>
+      </c>
+      <c r="D92">
+        <v>-0.3254781425479855</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>-0.002787742500476749</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>0.004972187453757233</v>
+      </c>
+      <c r="C93">
+        <v>0.1043230310831674</v>
+      </c>
+      <c r="D93">
+        <v>-0.3007793838583137</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>-0.0002798660692523961</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>0.02157760379850262</v>
+      </c>
+      <c r="C94">
+        <v>0.1444588008572915</v>
+      </c>
+      <c r="D94">
+        <v>0.05035398265286974</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>-0.003501095432896813</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>0.01655540091999337</v>
+      </c>
+      <c r="C95">
+        <v>0.1212165916367909</v>
+      </c>
+      <c r="D95">
+        <v>0.06205221915988795</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>-0.0004659956603121312</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>0.03647075920790137</v>
+      </c>
+      <c r="C97">
+        <v>0.2209442882198825</v>
+      </c>
+      <c r="D97">
+        <v>-0.008574664380391495</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>-0.004114166831696943</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>0.03784687485869923</v>
+      </c>
+      <c r="C98">
+        <v>0.2533585736831525</v>
+      </c>
+      <c r="D98">
+        <v>0.04304708279869705</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>0.9852274333776584</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>0.9814957265075437</v>
+      </c>
+      <c r="C99">
+        <v>-0.1191602607705546</v>
+      </c>
+      <c r="D99">
+        <v>-0.02383020249730657</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>-0.001226708790853088</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>0.002734767253670738</v>
+      </c>
+      <c r="C101">
+        <v>0.04957452328394239</v>
+      </c>
+      <c r="D101">
+        <v>0.007813542568380445</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
